--- a/assets/miten_se_toimii.xlsx
+++ b/assets/miten_se_toimii.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\repos\fire\pbi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\repos\fire\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE13A61-85CF-4FAB-919F-5A424365E1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1775BF-F4AB-474F-98E0-FC5938C8958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="375" windowWidth="25740" windowHeight="14940" xr2:uid="{C54A0256-3069-40EE-AD6C-A030EB4B1618}"/>
+    <workbookView xWindow="4845" yWindow="2265" windowWidth="21705" windowHeight="11820" xr2:uid="{C54A0256-3069-40EE-AD6C-A030EB4B1618}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,12 +117,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1598,7 +1598,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>pbi rapotti</a:t>
+            <a:t>pbi raportti</a:t>
           </a:r>
           <a:endParaRPr lang="LID4096" sz="1100">
             <a:solidFill>
@@ -2051,7 +2051,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,25 +2074,25 @@
     <row r="1" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
